--- a/策略编写手册.xlsx
+++ b/策略编写手册.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="context" sheetId="1" r:id="rId1"/>
-    <sheet name="position" sheetId="2" r:id="rId2"/>
-    <sheet name="config" sheetId="3" r:id="rId3"/>
+    <sheet name="bar_map" sheetId="4" r:id="rId2"/>
+    <sheet name="position" sheetId="2" r:id="rId3"/>
+    <sheet name="config" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>属性/方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +180,30 @@
   </si>
   <si>
     <t>capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_latest_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_current_date_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前交易日期时间(datetime.datetime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,27 +689,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -692,13 +714,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -706,15 +728,29 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -726,6 +762,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -809,12 +901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,6 +936,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
